--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2195.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2195.xlsx
@@ -354,7 +354,7 @@
         <v>1.886339912785969</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.738699352586628</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2195.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2195.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.057089997638012</v>
+        <v>0.8983613252639771</v>
       </c>
       <c r="B1">
-        <v>1.886339912785969</v>
+        <v>1.571712970733643</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.446219921112061</v>
       </c>
       <c r="D1">
-        <v>1.738699352586628</v>
+        <v>2.970701932907104</v>
       </c>
       <c r="E1">
-        <v>0.9957922982734131</v>
+        <v>1.548128128051758</v>
       </c>
     </row>
   </sheetData>
